--- a/data/trans_orig/Q5411-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>14593</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8951</v>
+        <v>8821</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22122</v>
+        <v>22257</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1131355775900813</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06939281255530989</v>
+        <v>0.06838739803010209</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1714967905440135</v>
+        <v>0.1725463910131667</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -765,19 +765,19 @@
         <v>35486</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25625</v>
+        <v>25566</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48165</v>
+        <v>48497</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.130362507163627</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09413670777591387</v>
+        <v>0.09391894867728966</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1769408966998776</v>
+        <v>0.1781579239382228</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -786,19 +786,19 @@
         <v>50080</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38471</v>
+        <v>38206</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63970</v>
+        <v>64000</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1248238795421825</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09588873137764044</v>
+        <v>0.09522907612682951</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1594460988425331</v>
+        <v>0.1595199604645351</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>114398</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>106869</v>
+        <v>106734</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>120040</v>
+        <v>120170</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8868644224099187</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8285032094559865</v>
+        <v>0.8274536089868334</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9306071874446902</v>
+        <v>0.9316126019698979</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>233</v>
@@ -836,19 +836,19 @@
         <v>236726</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>224047</v>
+        <v>223715</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>246587</v>
+        <v>246646</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8696374928363729</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8230591033001223</v>
+        <v>0.8218420760617774</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9058632922240859</v>
+        <v>0.9060810513227103</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>356</v>
@@ -857,19 +857,19 @@
         <v>351123</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>337233</v>
+        <v>337203</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>362732</v>
+        <v>362997</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8751761204578176</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.840553901157467</v>
+        <v>0.8404800395354649</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9041112686223596</v>
+        <v>0.9047709238731705</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>7237</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3547</v>
+        <v>3332</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13519</v>
+        <v>12954</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04451865201140737</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02181768029464511</v>
+        <v>0.02049513496697822</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08316362330077468</v>
+        <v>0.07969116822659551</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -982,19 +982,19 @@
         <v>14446</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7776</v>
+        <v>7852</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23210</v>
+        <v>23170</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07095334366076338</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03819096142153839</v>
+        <v>0.03856875683933766</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1140013891296148</v>
+        <v>0.1138052821340184</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -1003,19 +1003,19 @@
         <v>21683</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13428</v>
+        <v>13754</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32482</v>
+        <v>31977</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05921752344059314</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03667436144410849</v>
+        <v>0.03756381379692909</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08871059424154072</v>
+        <v>0.08733318991672248</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>155318</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>149036</v>
+        <v>149601</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>159008</v>
+        <v>159223</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9554813479885926</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9168363766992251</v>
+        <v>0.9203088317734045</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9781823197053549</v>
+        <v>0.9795048650330218</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>187</v>
@@ -1053,19 +1053,19 @@
         <v>189151</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>180387</v>
+        <v>180427</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>195821</v>
+        <v>195745</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9290466563392367</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8859986108703851</v>
+        <v>0.8861947178659814</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9618090385784616</v>
+        <v>0.9614312431606623</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>350</v>
@@ -1074,19 +1074,19 @@
         <v>344470</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>333671</v>
+        <v>334176</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>352725</v>
+        <v>352399</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9407824765594068</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9112894057584592</v>
+        <v>0.9126668100832775</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9633256385558914</v>
+        <v>0.962436186203071</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>2833</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7830</v>
+        <v>8356</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01954837738940231</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005576468146589235</v>
+        <v>0.005597371188762672</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05402955862700415</v>
+        <v>0.05765940431205775</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1199,19 +1199,19 @@
         <v>11410</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5722</v>
+        <v>5724</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19379</v>
+        <v>20327</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07811659529921024</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03917222473052119</v>
+        <v>0.03918638959604621</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.132671945647653</v>
+        <v>0.1391629720487093</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1220,19 +1220,19 @@
         <v>14243</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7923</v>
+        <v>7938</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24262</v>
+        <v>23017</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04894830066197402</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02722996959737988</v>
+        <v>0.02727993336074481</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08337792031080382</v>
+        <v>0.07909924100840347</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>142083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>137086</v>
+        <v>136560</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>144108</v>
+        <v>144105</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9804516226105977</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9459704413729958</v>
+        <v>0.9423405956879423</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9944235318534108</v>
+        <v>0.9944026288112373</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>130</v>
@@ -1270,19 +1270,19 @@
         <v>134657</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>126688</v>
+        <v>125740</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>140345</v>
+        <v>140343</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9218834047007898</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8673280543523471</v>
+        <v>0.8608370279512907</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9608277752694788</v>
+        <v>0.9608136104039537</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>271</v>
@@ -1291,19 +1291,19 @@
         <v>276741</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>266722</v>
+        <v>267967</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>283061</v>
+        <v>283046</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.951051699338026</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9166220796891961</v>
+        <v>0.9209007589915964</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9727700304026201</v>
+        <v>0.9727200666392553</v>
       </c>
     </row>
     <row r="12">
@@ -1408,19 +1408,19 @@
         <v>3489</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8679</v>
+        <v>9105</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0889332072113493</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02660160531580342</v>
+        <v>0.02677249899983168</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2212181703086802</v>
+        <v>0.2320625520899511</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1429,19 +1429,19 @@
         <v>3489</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1068</v>
+        <v>1046</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9165</v>
+        <v>9146</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03939288029181082</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01205939615048903</v>
+        <v>0.01180821971996886</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1034755699811629</v>
+        <v>0.1032590445754181</v>
       </c>
     </row>
     <row r="14">
@@ -1471,19 +1471,19 @@
         <v>35746</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30556</v>
+        <v>30130</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>38191</v>
+        <v>38185</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9110667927886507</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7787818296913189</v>
+        <v>0.7679374479100489</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9733983946841966</v>
+        <v>0.9732275010001683</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>88</v>
@@ -1492,19 +1492,19 @@
         <v>85087</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>79411</v>
+        <v>79430</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>87508</v>
+        <v>87530</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9606071197081891</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8965244300188367</v>
+        <v>0.896740955424582</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.987940603849511</v>
+        <v>0.9881917802800311</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>24663</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16565</v>
+        <v>16320</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35033</v>
+        <v>36329</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05076751569853707</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03409833746218695</v>
+        <v>0.03359446430760629</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07211389825379493</v>
+        <v>0.07478104811551983</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -1617,19 +1617,19 @@
         <v>64832</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50491</v>
+        <v>50614</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>79955</v>
+        <v>82150</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09806473616744167</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07637239194165613</v>
+        <v>0.07655954435766069</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1209400612768926</v>
+        <v>0.1242600781902102</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>86</v>
@@ -1638,19 +1638,19 @@
         <v>89495</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>72221</v>
+        <v>72679</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>107941</v>
+        <v>108285</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07803084544358825</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06296993390834957</v>
+        <v>0.06336877989612889</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09411411248971094</v>
+        <v>0.09441442749706483</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>461141</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>450771</v>
+        <v>449475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>469239</v>
+        <v>469484</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9492324843014629</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9278861017462052</v>
+        <v>0.9252189518844803</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9659016625378133</v>
+        <v>0.9664055356923937</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>586</v>
@@ -1688,19 +1688,19 @@
         <v>596280</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>581157</v>
+        <v>578962</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>610621</v>
+        <v>610498</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9019352638325583</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8790599387231077</v>
+        <v>0.875739921809789</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.923627608058344</v>
+        <v>0.9234404556423393</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1065</v>
@@ -1709,19 +1709,19 @@
         <v>1057421</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1038975</v>
+        <v>1038631</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1074695</v>
+        <v>1074237</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9219691545564117</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.905885887510289</v>
+        <v>0.905585572502935</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9370300660916504</v>
+        <v>0.936631220103871</v>
       </c>
     </row>
     <row r="18">
@@ -2053,19 +2053,19 @@
         <v>20432</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13174</v>
+        <v>12631</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30229</v>
+        <v>29381</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1485574198149717</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0957896243503971</v>
+        <v>0.09183998534156131</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2197961567302737</v>
+        <v>0.2136259809569123</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -2074,19 +2074,19 @@
         <v>58077</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45275</v>
+        <v>46291</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72707</v>
+        <v>72342</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2693309984794731</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2099606851806459</v>
+        <v>0.214674830018342</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3371797388402819</v>
+        <v>0.3354829555598465</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -2095,19 +2095,19 @@
         <v>78508</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>63139</v>
+        <v>63347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96097</v>
+        <v>96107</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2222983924311021</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1787789741678641</v>
+        <v>0.1793676370638758</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2721001408086681</v>
+        <v>0.2721292513900436</v>
       </c>
     </row>
     <row r="5">
@@ -2124,19 +2124,19 @@
         <v>117101</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>107304</v>
+        <v>108152</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124359</v>
+        <v>124902</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8514425801850283</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7802038432697262</v>
+        <v>0.7863740190430873</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9042103756496028</v>
+        <v>0.9081600146584385</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>147</v>
@@ -2145,19 +2145,19 @@
         <v>157557</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>142927</v>
+        <v>143292</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>170359</v>
+        <v>169343</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7306690015205269</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.662820261159718</v>
+        <v>0.6645170444401536</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.790039314819354</v>
+        <v>0.7853251699816579</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>251</v>
@@ -2166,19 +2166,19 @@
         <v>274659</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>257070</v>
+        <v>257060</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>290028</v>
+        <v>289820</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7777016075688978</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7278998591913322</v>
+        <v>0.7278707486099569</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.821221025832136</v>
+        <v>0.8206323629361242</v>
       </c>
     </row>
     <row r="6">
@@ -2270,19 +2270,19 @@
         <v>21058</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12639</v>
+        <v>12745</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31674</v>
+        <v>32129</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1220986216158465</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07328295830508012</v>
+        <v>0.07389543695451535</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1836518984266378</v>
+        <v>0.1862848379532468</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -2291,19 +2291,19 @@
         <v>61864</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48065</v>
+        <v>48724</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75981</v>
+        <v>77809</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2503933518340364</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1945428970946972</v>
+        <v>0.1972105570116446</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3075309671619308</v>
+        <v>0.314931063184772</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -2312,19 +2312,19 @@
         <v>82922</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66927</v>
+        <v>67204</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99650</v>
+        <v>100861</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1976519183396517</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1595253293114413</v>
+        <v>0.1601874349001069</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2375242615590268</v>
+        <v>0.2404118249360657</v>
       </c>
     </row>
     <row r="8">
@@ -2341,19 +2341,19 @@
         <v>151412</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>140796</v>
+        <v>140341</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>159831</v>
+        <v>159725</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8779013783841535</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8163481015733622</v>
+        <v>0.8137151620467531</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.92671704169492</v>
+        <v>0.9261045630454846</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>179</v>
@@ -2362,19 +2362,19 @@
         <v>185203</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>171086</v>
+        <v>169258</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>199002</v>
+        <v>198343</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7496066481659636</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6924690328380695</v>
+        <v>0.6850689368152277</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8054571029053028</v>
+        <v>0.8027894429883554</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>319</v>
@@ -2383,19 +2383,19 @@
         <v>336614</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>319886</v>
+        <v>318675</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>352609</v>
+        <v>352332</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8023480816603483</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7624757384409732</v>
+        <v>0.7595881750639342</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8404746706885587</v>
+        <v>0.8398125650998931</v>
       </c>
     </row>
     <row r="9">
@@ -2487,19 +2487,19 @@
         <v>14591</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8160</v>
+        <v>8216</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24262</v>
+        <v>23738</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08777566807862347</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0490866476169371</v>
+        <v>0.04942423941077984</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1459510287792221</v>
+        <v>0.1427997919452711</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -2508,19 +2508,19 @@
         <v>27595</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17957</v>
+        <v>17910</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38400</v>
+        <v>38977</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1436695862828031</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09349111480987296</v>
+        <v>0.09324657162857773</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1999243490754963</v>
+        <v>0.2029315977375323</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -2529,19 +2529,19 @@
         <v>42186</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29880</v>
+        <v>30554</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55737</v>
+        <v>56209</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1177377677300395</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08339143584002266</v>
+        <v>0.08527256244875391</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1555565985534505</v>
+        <v>0.1568747827929098</v>
       </c>
     </row>
     <row r="11">
@@ -2558,19 +2558,19 @@
         <v>151644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>141973</v>
+        <v>142497</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>158075</v>
+        <v>158019</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9122243319213765</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8540489712207785</v>
+        <v>0.8572002080547289</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9509133523830631</v>
+        <v>0.9505757605892201</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>155</v>
@@ -2579,19 +2579,19 @@
         <v>164476</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>153671</v>
+        <v>153094</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>174114</v>
+        <v>174161</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8563304137171969</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8000756509245038</v>
+        <v>0.7970684022624679</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9065088851901271</v>
+        <v>0.9067534283714225</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>293</v>
@@ -2600,19 +2600,19 @@
         <v>316120</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>302569</v>
+        <v>302097</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>328426</v>
+        <v>327752</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8822622322699605</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8444434014465495</v>
+        <v>0.8431252172070904</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9166085641599775</v>
+        <v>0.9147274375512462</v>
       </c>
     </row>
     <row r="12">
@@ -2704,19 +2704,19 @@
         <v>5375</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1082</v>
+        <v>2005</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13094</v>
+        <v>12784</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06882437584512038</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01386022589832886</v>
+        <v>0.02567090422161023</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1676593181760679</v>
+        <v>0.1636966846921667</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -2725,19 +2725,19 @@
         <v>14438</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8003</v>
+        <v>8604</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22849</v>
+        <v>23237</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1697616596613273</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09409863831578966</v>
+        <v>0.1011673700000238</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2686578350843101</v>
+        <v>0.2732199196372941</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -2746,19 +2746,19 @@
         <v>19813</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12162</v>
+        <v>12156</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30375</v>
+        <v>30249</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1214440016136412</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07454508265341368</v>
+        <v>0.07451051830547045</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1861857506648197</v>
+        <v>0.1854106667761183</v>
       </c>
     </row>
     <row r="14">
@@ -2775,19 +2775,19 @@
         <v>72722</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65003</v>
+        <v>65313</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>77015</v>
+        <v>76092</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9311756241548796</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8323406818239322</v>
+        <v>0.8363033153078334</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9861397741016712</v>
+        <v>0.9743290957783898</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -2796,19 +2796,19 @@
         <v>70612</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>62201</v>
+        <v>61813</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77047</v>
+        <v>76446</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8302383403386727</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7313421649156899</v>
+        <v>0.7267800803627058</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9059013616842103</v>
+        <v>0.898832629999976</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>126</v>
@@ -2817,19 +2817,19 @@
         <v>143333</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>132771</v>
+        <v>132897</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>150984</v>
+        <v>150990</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8785559983863588</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8138142493351807</v>
+        <v>0.8145893332238816</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9254549173465864</v>
+        <v>0.9254894816945295</v>
       </c>
     </row>
     <row r="15">
@@ -2921,19 +2921,19 @@
         <v>61456</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46112</v>
+        <v>46685</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78586</v>
+        <v>78503</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1108648724091381</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0831841375082064</v>
+        <v>0.08421803269040601</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1417665392073603</v>
+        <v>0.1416165707869999</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>148</v>
@@ -2942,19 +2942,19 @@
         <v>161974</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139942</v>
+        <v>140667</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>189010</v>
+        <v>185832</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2189362271947328</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.189156033985258</v>
+        <v>0.1901365100520092</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2554801152668983</v>
+        <v>0.2511844349112106</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>201</v>
@@ -2963,19 +2963,19 @@
         <v>223430</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>197118</v>
+        <v>197031</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>254134</v>
+        <v>253988</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1726453076414793</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1523141528104848</v>
+        <v>0.1522464806657556</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1963704711272346</v>
+        <v>0.196257472435802</v>
       </c>
     </row>
     <row r="17">
@@ -2992,19 +2992,19 @@
         <v>492878</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>475748</v>
+        <v>475831</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>508222</v>
+        <v>507649</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8891351275908619</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8582334607926398</v>
+        <v>0.8583834292130005</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9168158624917937</v>
+        <v>0.915781967309594</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>543</v>
@@ -3013,19 +3013,19 @@
         <v>577847</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>550811</v>
+        <v>553989</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>599879</v>
+        <v>599154</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7810637728052672</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.744519884733102</v>
+        <v>0.7488155650887895</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8108439660147427</v>
+        <v>0.8098634899479908</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>989</v>
@@ -3034,19 +3034,19 @@
         <v>1070725</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1040021</v>
+        <v>1040167</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1097037</v>
+        <v>1097124</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8273546923585208</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8036295288727654</v>
+        <v>0.803742527564198</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8476858471895152</v>
+        <v>0.8477535193342445</v>
       </c>
     </row>
     <row r="18">
@@ -3378,19 +3378,19 @@
         <v>14552</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8363</v>
+        <v>8683</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21991</v>
+        <v>22627</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08742381331378209</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0502437486144639</v>
+        <v>0.05216706116444649</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.132116451077262</v>
+        <v>0.1359365611587982</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -3399,19 +3399,19 @@
         <v>40008</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28878</v>
+        <v>28299</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53116</v>
+        <v>53767</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1536538921419697</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1109072428325975</v>
+        <v>0.1086825447914211</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2039951910355126</v>
+        <v>0.2064977410979807</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -3420,19 +3420,19 @@
         <v>54560</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41880</v>
+        <v>39919</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69992</v>
+        <v>68812</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1278257378634991</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09811715456928209</v>
+        <v>0.09352445567391145</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1639796689672028</v>
+        <v>0.1612162193197492</v>
       </c>
     </row>
     <row r="5">
@@ -3449,19 +3449,19 @@
         <v>151902</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>144463</v>
+        <v>143827</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>158091</v>
+        <v>157771</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9125761866862179</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8678835489227379</v>
+        <v>0.8640634388412016</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.949756251385536</v>
+        <v>0.9478329388355534</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>189</v>
@@ -3470,19 +3470,19 @@
         <v>220370</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>207262</v>
+        <v>206611</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>231500</v>
+        <v>232079</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8463461078580303</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7960048089644874</v>
+        <v>0.7935022589020193</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8890927571674025</v>
+        <v>0.8913174552085789</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>348</v>
@@ -3491,19 +3491,19 @@
         <v>372272</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>356840</v>
+        <v>358020</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>384952</v>
+        <v>386913</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8721742621365008</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8360203310327979</v>
+        <v>0.8387837806802507</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9018828454307181</v>
+        <v>0.9064755443260886</v>
       </c>
     </row>
     <row r="6">
@@ -3595,19 +3595,19 @@
         <v>12927</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7148</v>
+        <v>7183</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20363</v>
+        <v>20543</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07614459068666594</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04210358752622881</v>
+        <v>0.04231335025232874</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.119949095772834</v>
+        <v>0.1210125651198639</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -3616,19 +3616,19 @@
         <v>28658</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19166</v>
+        <v>18436</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41470</v>
+        <v>42073</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1297904718500614</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08680091015444798</v>
+        <v>0.0834945418796304</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1878105702918321</v>
+        <v>0.1905441672820395</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -3637,19 +3637,19 @@
         <v>41585</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30356</v>
+        <v>29688</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55835</v>
+        <v>54560</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1064729003534375</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07772330690877927</v>
+        <v>0.07601172696986917</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1429582700110387</v>
+        <v>0.139693482388453</v>
       </c>
     </row>
     <row r="8">
@@ -3666,19 +3666,19 @@
         <v>156836</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>149400</v>
+        <v>149220</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>162615</v>
+        <v>162580</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9238554093133341</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8800509042271659</v>
+        <v>0.8789874348801361</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9578964124737711</v>
+        <v>0.9576866497476713</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>166</v>
@@ -3687,19 +3687,19 @@
         <v>192147</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>179335</v>
+        <v>178732</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>201639</v>
+        <v>202369</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8702095281499386</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8121894297081679</v>
+        <v>0.8094558327179605</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.913199089845552</v>
+        <v>0.9165054581203693</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>335</v>
@@ -3708,19 +3708,19 @@
         <v>348983</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>334733</v>
+        <v>336008</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>360212</v>
+        <v>360880</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8935270996465625</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8570417299889613</v>
+        <v>0.8603065176115475</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9222766930912207</v>
+        <v>0.923988273030131</v>
       </c>
     </row>
     <row r="9">
@@ -3812,19 +3812,19 @@
         <v>9905</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5208</v>
+        <v>5065</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17374</v>
+        <v>17634</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06358992394959705</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03343490130244471</v>
+        <v>0.03251844329911947</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1115367529457237</v>
+        <v>0.1132055136406586</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -3833,19 +3833,19 @@
         <v>26964</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17839</v>
+        <v>17506</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40877</v>
+        <v>39838</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1464573517731455</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09689686063039506</v>
+        <v>0.09508415349842725</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2220274397253211</v>
+        <v>0.2163872230450147</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -3854,19 +3854,19 @@
         <v>36869</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25235</v>
+        <v>25551</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51785</v>
+        <v>52044</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1084778575858599</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07424706120932251</v>
+        <v>0.07517714711098836</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1523652406043664</v>
+        <v>0.1531251672942358</v>
       </c>
     </row>
     <row r="11">
@@ -3883,19 +3883,19 @@
         <v>145866</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>138397</v>
+        <v>138137</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>150563</v>
+        <v>150706</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9364100760504029</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8884632470542763</v>
+        <v>0.8867944863593399</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9665650986975551</v>
+        <v>0.9674815567008804</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>133</v>
@@ -3904,19 +3904,19 @@
         <v>157142</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>143229</v>
+        <v>144268</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>166267</v>
+        <v>166600</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8535426482268546</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7779725602746789</v>
+        <v>0.7836127769549853</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9031031393696048</v>
+        <v>0.9049158465015728</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>288</v>
@@ -3925,19 +3925,19 @@
         <v>303008</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>288092</v>
+        <v>287833</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>314642</v>
+        <v>314326</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8915221424141401</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8476347593956338</v>
+        <v>0.8468748327057639</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9257529387906775</v>
+        <v>0.9248228528890116</v>
       </c>
     </row>
     <row r="12">
@@ -4029,19 +4029,19 @@
         <v>9669</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5277</v>
+        <v>5148</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16654</v>
+        <v>15509</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1099435420621781</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06000292041134668</v>
+        <v>0.05853550168257799</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1893672449512025</v>
+        <v>0.1763442173288984</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4050,19 +4050,19 @@
         <v>5925</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2341</v>
+        <v>2274</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12950</v>
+        <v>13318</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05561756343195346</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02197188036255844</v>
+        <v>0.0213478907249047</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.121558220370214</v>
+        <v>0.1250097262246529</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -4071,19 +4071,19 @@
         <v>15594</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8872</v>
+        <v>9369</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24446</v>
+        <v>24194</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08018398832657044</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04561823726389545</v>
+        <v>0.04817182785691954</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1256968662617889</v>
+        <v>0.1244035127182687</v>
       </c>
     </row>
     <row r="14">
@@ -4100,19 +4100,19 @@
         <v>78276</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71291</v>
+        <v>72436</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>82668</v>
+        <v>82797</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.890056457937822</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8106327550487974</v>
+        <v>0.8236557826711016</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9399970795886533</v>
+        <v>0.941464498317422</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>83</v>
@@ -4121,19 +4121,19 @@
         <v>100611</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93586</v>
+        <v>93218</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>104195</v>
+        <v>104262</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9443824365680465</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8784417796297864</v>
+        <v>0.8749902737753472</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9780281196374416</v>
+        <v>0.9786521092750953</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>164</v>
@@ -4142,19 +4142,19 @@
         <v>178887</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>170035</v>
+        <v>170287</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>185609</v>
+        <v>185112</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9198160116734295</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8743031337382107</v>
+        <v>0.8755964872817317</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9543817627361043</v>
+        <v>0.9518281721430805</v>
       </c>
     </row>
     <row r="15">
@@ -4246,19 +4246,19 @@
         <v>47053</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35953</v>
+        <v>35527</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60432</v>
+        <v>59720</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08113528599193304</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06199429027995917</v>
+        <v>0.0612600995698116</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1042049696290964</v>
+        <v>0.1029775120096953</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>79</v>
@@ -4267,19 +4267,19 @@
         <v>101555</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>80133</v>
+        <v>81778</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>124329</v>
+        <v>123440</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1315782893431838</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1038229504998771</v>
+        <v>0.1059548026333062</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1610843274674367</v>
+        <v>0.1599334753553951</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>131</v>
@@ -4288,19 +4288,19 @@
         <v>148608</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>125595</v>
+        <v>126864</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>173892</v>
+        <v>174494</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1099371349903179</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09291232854511564</v>
+        <v>0.09385134557207774</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1286416933842756</v>
+        <v>0.1290868964759869</v>
       </c>
     </row>
     <row r="17">
@@ -4317,19 +4317,19 @@
         <v>532881</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>519502</v>
+        <v>520214</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>543981</v>
+        <v>544407</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.918864714008067</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8957950303709036</v>
+        <v>0.8970224879903046</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9380057097200408</v>
+        <v>0.9387399004301884</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>571</v>
@@ -4338,19 +4338,19 @@
         <v>670269</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>647495</v>
+        <v>648384</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>691691</v>
+        <v>690046</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8684217106568163</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8389156725325633</v>
+        <v>0.8400665246446051</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.896177049500123</v>
+        <v>0.8940451973666939</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1135</v>
@@ -4359,19 +4359,19 @@
         <v>1203150</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1177866</v>
+        <v>1177264</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1226163</v>
+        <v>1224894</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8900628650096821</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8713583066157248</v>
+        <v>0.8709131035240132</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9070876714548846</v>
+        <v>0.9061486544279223</v>
       </c>
     </row>
     <row r="18">
@@ -4703,19 +4703,19 @@
         <v>9501</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5099</v>
+        <v>5520</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15262</v>
+        <v>14845</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1412195499861022</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07579844363433048</v>
+        <v>0.08204740790633974</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2268484286527279</v>
+        <v>0.2206610434884086</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -4724,19 +4724,19 @@
         <v>30475</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23095</v>
+        <v>24255</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38345</v>
+        <v>37833</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2146296506476646</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1626539283597105</v>
+        <v>0.1708247669783271</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2700571064755414</v>
+        <v>0.2664545783055686</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>71</v>
@@ -4745,19 +4745,19 @@
         <v>39976</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31552</v>
+        <v>31774</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48908</v>
+        <v>49341</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1910288974047216</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1507753709722507</v>
+        <v>0.1518370540440212</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2337117083838464</v>
+        <v>0.2357817576982409</v>
       </c>
     </row>
     <row r="5">
@@ -4774,19 +4774,19 @@
         <v>57776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52015</v>
+        <v>52432</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62178</v>
+        <v>61757</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8587804500138979</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7731515713472722</v>
+        <v>0.7793389565115926</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9242015563656695</v>
+        <v>0.9179525920936604</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>207</v>
@@ -4795,19 +4795,19 @@
         <v>111513</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>103643</v>
+        <v>104155</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>118893</v>
+        <v>117733</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7853703493523353</v>
+        <v>0.7853703493523355</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7299428935244586</v>
+        <v>0.7335454216944313</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8373460716402896</v>
+        <v>0.829175233021673</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>287</v>
@@ -4816,19 +4816,19 @@
         <v>169289</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>160357</v>
+        <v>159924</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>177713</v>
+        <v>177491</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8089711025952784</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7662882916161541</v>
+        <v>0.7642182423017593</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8492246290277492</v>
+        <v>0.8481629459559786</v>
       </c>
     </row>
     <row r="6">
@@ -4920,19 +4920,19 @@
         <v>19630</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13444</v>
+        <v>14049</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26659</v>
+        <v>27917</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09751441872377496</v>
+        <v>0.097514418723775</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06678678219612845</v>
+        <v>0.06979218574269214</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1324314159876737</v>
+        <v>0.1386815367577152</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -4941,19 +4941,19 @@
         <v>49946</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40104</v>
+        <v>41489</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60147</v>
+        <v>61483</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1651993434307024</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1326473587200522</v>
+        <v>0.137226408331823</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1989387092897241</v>
+        <v>0.2033591842221358</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>127</v>
@@ -4962,19 +4962,19 @@
         <v>69576</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58538</v>
+        <v>58307</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83331</v>
+        <v>81876</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1381458313211152</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1162300478423806</v>
+        <v>0.1157709164720566</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1654569510352909</v>
+        <v>0.1625690349925982</v>
       </c>
     </row>
     <row r="8">
@@ -4991,19 +4991,19 @@
         <v>181674</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>174645</v>
+        <v>173387</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>187860</v>
+        <v>187255</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.902485581276225</v>
+        <v>0.9024855812762251</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8675685840123253</v>
+        <v>0.8613184632422846</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9332132178038715</v>
+        <v>0.9302078142573069</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>472</v>
@@ -5012,19 +5012,19 @@
         <v>252391</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>242190</v>
+        <v>240854</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>262233</v>
+        <v>260848</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8348006565692977</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8010612907102759</v>
+        <v>0.7966408157778641</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8673526412799477</v>
+        <v>0.862773591668177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>736</v>
@@ -5033,19 +5033,19 @@
         <v>434065</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>420310</v>
+        <v>421765</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>445103</v>
+        <v>445334</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8618541686788849</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8345430489647092</v>
+        <v>0.8374309650074018</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8837699521576193</v>
+        <v>0.8842290835279435</v>
       </c>
     </row>
     <row r="9">
@@ -5137,19 +5137,19 @@
         <v>12594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7940</v>
+        <v>7393</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20639</v>
+        <v>20098</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05491911625090054</v>
+        <v>0.05491911625090055</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03462417828522385</v>
+        <v>0.03224125768827133</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09000139020733909</v>
+        <v>0.08764320817973388</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -5158,19 +5158,19 @@
         <v>29778</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22225</v>
+        <v>22359</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37508</v>
+        <v>38092</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1259083963798871</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09397016202844229</v>
+        <v>0.09453782825583898</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.158592262902339</v>
+        <v>0.1610579956484473</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>75</v>
@@ -5179,19 +5179,19 @@
         <v>42372</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33846</v>
+        <v>33451</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53016</v>
+        <v>52862</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09096195008365011</v>
+        <v>0.0909619500836501</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07265937057492983</v>
+        <v>0.07181122774181353</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1138124465824181</v>
+        <v>0.1134813961204569</v>
       </c>
     </row>
     <row r="11">
@@ -5208,19 +5208,19 @@
         <v>216720</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>208675</v>
+        <v>209216</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>221374</v>
+        <v>221921</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9450808837490994</v>
+        <v>0.9450808837490995</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9099986097926611</v>
+        <v>0.9123567918202661</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9653758217147762</v>
+        <v>0.9677587423117288</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>393</v>
@@ -5229,19 +5229,19 @@
         <v>206731</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>199001</v>
+        <v>198417</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>214284</v>
+        <v>214150</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.874091603620113</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8414077370976609</v>
+        <v>0.8389420043515525</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9060298379715576</v>
+        <v>0.9054621717441609</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>703</v>
@@ -5250,19 +5250,19 @@
         <v>423451</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>412807</v>
+        <v>412961</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>431977</v>
+        <v>432372</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.90903804991635</v>
+        <v>0.9090380499163497</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8861875534175819</v>
+        <v>0.8865186038795433</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9273406294250703</v>
+        <v>0.9281887722581871</v>
       </c>
     </row>
     <row r="12">
@@ -5354,19 +5354,19 @@
         <v>11254</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6363</v>
+        <v>6473</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18211</v>
+        <v>18594</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05287498224356939</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02989470270113829</v>
+        <v>0.03041127282986882</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08555991894887933</v>
+        <v>0.08735944460079295</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -5375,19 +5375,19 @@
         <v>16408</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11628</v>
+        <v>11257</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23209</v>
+        <v>23026</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07874042203122196</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05580111292579892</v>
+        <v>0.05402459880398811</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1113804864248756</v>
+        <v>0.1105011707266191</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -5396,19 +5396,19 @@
         <v>27662</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19965</v>
+        <v>20538</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36494</v>
+        <v>35891</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06567042744101981</v>
+        <v>0.06567042744101979</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04739907771355283</v>
+        <v>0.04875855499668034</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08663876026979513</v>
+        <v>0.08520763049033625</v>
       </c>
     </row>
     <row r="14">
@@ -5425,19 +5425,19 @@
         <v>201592</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>194635</v>
+        <v>194252</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>206483</v>
+        <v>206373</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9471250177564307</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9144400810511207</v>
+        <v>0.9126405553992067</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9701052972988616</v>
+        <v>0.9695887271701311</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>363</v>
@@ -5446,19 +5446,19 @@
         <v>191967</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>185166</v>
+        <v>185349</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>196747</v>
+        <v>197118</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.921259577968778</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8886195135751245</v>
+        <v>0.8894988292733813</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.944198887074201</v>
+        <v>0.9459754011960121</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>650</v>
@@ -5467,19 +5467,19 @@
         <v>393558</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>384726</v>
+        <v>385329</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>401255</v>
+        <v>400682</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9343295725589802</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9133612397302047</v>
+        <v>0.9147923695096637</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9526009222864471</v>
+        <v>0.951241445003319</v>
       </c>
     </row>
     <row r="15">
@@ -5571,19 +5571,19 @@
         <v>52979</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42691</v>
+        <v>41770</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>67119</v>
+        <v>65615</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07454026837775858</v>
+        <v>0.07454026837775857</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06006555791667456</v>
+        <v>0.05876966193176644</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09443521805624112</v>
+        <v>0.09231976482576144</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>242</v>
@@ -5592,19 +5592,19 @@
         <v>126607</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>112157</v>
+        <v>111693</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>142084</v>
+        <v>141810</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1423813088561743</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1261313534097944</v>
+        <v>0.1256094141165275</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1597865818232022</v>
+        <v>0.1594787341399875</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>321</v>
@@ -5613,19 +5613,19 @@
         <v>179585</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>162881</v>
+        <v>160519</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>200438</v>
+        <v>199841</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1122444657342759</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1018040926469782</v>
+        <v>0.1003276376562501</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1252775510037954</v>
+        <v>0.1249048160348567</v>
       </c>
     </row>
     <row r="17">
@@ -5642,19 +5642,19 @@
         <v>657762</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>643622</v>
+        <v>645126</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>668050</v>
+        <v>668971</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9254597316222416</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9055647819437588</v>
+        <v>0.9076802351742385</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9399344420833253</v>
+        <v>0.9412303380682336</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1435</v>
@@ -5663,19 +5663,19 @@
         <v>762601</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>747124</v>
+        <v>747398</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>777051</v>
+        <v>777515</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8576186911438258</v>
+        <v>0.8576186911438257</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8402134181767978</v>
+        <v>0.8405212658600132</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8738686465902056</v>
+        <v>0.8743905858834726</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2376</v>
@@ -5684,19 +5684,19 @@
         <v>1420364</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1399511</v>
+        <v>1400108</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1437068</v>
+        <v>1439430</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8877555342657241</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8747224489962045</v>
+        <v>0.8750951839651433</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8981959073530217</v>
+        <v>0.8996723623437498</v>
       </c>
     </row>
     <row r="18">
